--- a/Xports/UD_French-ParisStories/VERB-obl.xlsx
+++ b/Xports/UD_French-ParisStories/VERB-obl.xlsx
@@ -61711,7 +61711,7 @@
         <v>3597</v>
       </c>
       <c r="O1042">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:15">
@@ -69278,7 +69278,7 @@
         <v>4061</v>
       </c>
       <c r="O1203">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:15">
